--- a/Labs/SOC5670_Lab_DataDictionary.xlsx
+++ b/Labs/SOC5670_Lab_DataDictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -50,19 +50,115 @@
     <t>stl_msa_ct_04</t>
   </si>
   <si>
-    <t>Shapefile for St. Louis MSA with social data part 01</t>
-  </si>
-  <si>
-    <t>Shapefile for St. Louis MSA with social data part 02</t>
-  </si>
-  <si>
-    <t>Shapefile for St. Louis MSA with social data, census tracts removed, and indicators</t>
-  </si>
-  <si>
-    <t>Shapefile for St. Louis MSA with social data, census tracts removed, indicators added and projected to UTM-15</t>
-  </si>
-  <si>
-    <t>Shapefile for St. Louis MSA with no additional social data</t>
+    <t>mc_blk</t>
+  </si>
+  <si>
+    <t>mc_lat</t>
+  </si>
+  <si>
+    <t>mc_wht</t>
+  </si>
+  <si>
+    <t>sd_blk</t>
+  </si>
+  <si>
+    <t>sd_lat</t>
+  </si>
+  <si>
+    <t>sd_wht</t>
+  </si>
+  <si>
+    <t>sde_blk</t>
+  </si>
+  <si>
+    <t>sde_lat</t>
+  </si>
+  <si>
+    <t>sde_wht</t>
+  </si>
+  <si>
+    <t>states_il_mo_01</t>
+  </si>
+  <si>
+    <t>stl_msa</t>
+  </si>
+  <si>
+    <t>stl_city</t>
+  </si>
+  <si>
+    <t>stl_grid01</t>
+  </si>
+  <si>
+    <t>stl_grid02</t>
+  </si>
+  <si>
+    <t>stl_int01</t>
+  </si>
+  <si>
+    <t>stl_int02</t>
+  </si>
+  <si>
+    <t>Shapefile for the states of Illinois and Missouri combined.</t>
+  </si>
+  <si>
+    <t>Shapefile for the St. Louis Metropolitan Statistical Area (MSA).</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA with census tracts.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA with census tracts and social data part 01.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA with census tracts and social data part 02.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA with census tracts removed and social data and indicators added.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA with census tracts removed, social and indicators added, and projected to UTM-15.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA mean center of Black population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA mean center of White population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA mean center of Latino and Hispanic population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA standard distance of Black population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA standard distance of Latino and Hispanic population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA standard distance of White population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA directional distribution of Black population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA directional distribution of Latino and Hispanic population.</t>
+  </si>
+  <si>
+    <t>Shapefile for St. Louis MSA directional distribution of White population.</t>
+  </si>
+  <si>
+    <t>Shapefile for the boundary of the City of St. Louis, Missouri.</t>
+  </si>
+  <si>
+    <t>Shapefile for the City of St. Louis, Missouri with grid clipped to city boundary.</t>
+  </si>
+  <si>
+    <t>Shapefile for the City of St. Louis, Missouri with grid overlay.</t>
+  </si>
+  <si>
+    <t>Shapefile for the City of St. Louis, Missouri with grid clipped to city boundary, partial grids removed, and census tracts added.</t>
+  </si>
+  <si>
+    <t>Shapefile for the City of St. Louis, Missouri with grid clipped to city boundary, partial grids removed, census tracts added, and population interpolated to grid.</t>
   </si>
 </sst>
 </file>
@@ -70,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,9 +205,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -120,11 +216,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,11 +545,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,48 +571,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>43850</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>43850</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43857</v>
+        <v>43850</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43857</v>
+        <v>43850</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,10 +620,186 @@
         <v>43857</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43857</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43857</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>43867</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43874</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
